--- a/Freesound examples for FSD.xlsx
+++ b/Freesound examples for FSD.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1048">
   <si>
     <t>Rong, JP, Pritish, Albin, EF, XF, Andres</t>
   </si>
@@ -1118,9 +1118,6 @@
   </si>
   <si>
     <t>/m/0395lw</t>
-  </si>
-  <si>
-    <t>Naomi Watts</t>
   </si>
   <si>
     <t>Music &gt; Musical instrument &gt; Bell &gt; Bicycle bell // MULTIPLE PARENTS</t>
@@ -6140,17 +6137,39 @@
       <c r="B75" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3">
+        <v>177501.0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>336900.0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>177506.0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>21183.0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>68727.0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>88552.0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>94775.0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>256569.0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>348257.0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>349894.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
@@ -8776,130 +8795,250 @@
         <v>368</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D144" s="9">
+        <v>196380.0</v>
+      </c>
+      <c r="E144" s="9">
+        <v>79436.0</v>
+      </c>
+      <c r="F144" s="9">
+        <v>353232.0</v>
+      </c>
+      <c r="G144" s="9">
+        <v>242456.0</v>
+      </c>
+      <c r="H144" s="9">
+        <v>257130.0</v>
+      </c>
+      <c r="I144" s="9">
+        <v>182879.0</v>
+      </c>
+      <c r="J144" s="9">
+        <v>149268.0</v>
+      </c>
+      <c r="K144" s="3">
+        <v>10449.0</v>
+      </c>
+      <c r="L144" s="9">
+        <v>78403.0</v>
+      </c>
+      <c r="M144" s="9">
+        <v>168028.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="C145" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D145" s="3">
+        <v>173001.0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>318193.0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>186096.0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>124501.0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>233062.0</v>
+      </c>
+      <c r="I145" s="3">
+        <v>328824.0</v>
+      </c>
+      <c r="J145" s="3">
+        <v>328824.0</v>
+      </c>
+      <c r="K145" s="3">
+        <v>267900.0</v>
+      </c>
+      <c r="L145" s="3">
+        <v>124502.0</v>
+      </c>
+      <c r="M145" s="3">
+        <v>378912.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="C146" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D146" s="3">
+        <v>133042.0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>257550.0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>186719.0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>51712.0</v>
+      </c>
+      <c r="H146" s="3">
+        <v>44164.0</v>
+      </c>
+      <c r="I146" s="9">
+        <v>131015.0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>51698.0</v>
+      </c>
+      <c r="K146" s="3">
+        <v>263542.0</v>
+      </c>
+      <c r="L146" s="9">
+        <v>43949.0</v>
+      </c>
+      <c r="M146" s="3">
+        <v>62968.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="C147" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D147" s="3">
+        <v>257555.0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>375627.0</v>
+      </c>
+      <c r="F147" s="3">
+        <v>257550.0</v>
+      </c>
+      <c r="G147" s="3">
+        <v>44165.0</v>
+      </c>
+      <c r="H147" s="3">
+        <v>44163.0</v>
+      </c>
+      <c r="I147" s="3">
+        <v>44156.0</v>
+      </c>
+      <c r="J147" s="3">
+        <v>44167.0</v>
+      </c>
+      <c r="K147" s="3">
+        <v>44149.0</v>
+      </c>
+      <c r="L147" s="3">
+        <v>44157.0</v>
+      </c>
+      <c r="M147" s="3">
+        <v>9247.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="C148" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D148" s="3">
+        <v>110402.0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>174725.0</v>
+      </c>
+      <c r="F148" s="3">
+        <v>76405.0</v>
+      </c>
+      <c r="G148" s="3">
+        <v>219050.0</v>
+      </c>
+      <c r="H148" s="3">
+        <v>12676.0</v>
+      </c>
+      <c r="I148" s="3">
+        <v>259278.0</v>
+      </c>
+      <c r="J148" s="3">
+        <v>51385.0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>87427.0</v>
+      </c>
+      <c r="L148" s="3">
+        <v>341866.0</v>
+      </c>
+      <c r="M148" s="3">
+        <v>19562.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="C149" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D149" s="3">
+        <v>127553.0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>110315.0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>30158.0</v>
+      </c>
+      <c r="G149" s="3">
+        <v>63272.0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>30154.0</v>
+      </c>
+      <c r="I149" s="3">
+        <v>63271.0</v>
+      </c>
+      <c r="J149" s="3">
+        <v>235465.0</v>
+      </c>
+      <c r="K149" s="3">
+        <v>201656.0</v>
+      </c>
+      <c r="L149" s="3">
+        <v>85917.0</v>
+      </c>
+      <c r="M149" s="3">
+        <v>127554.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>120</v>
@@ -8937,10 +9076,10 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>120</v>
@@ -8976,15 +9115,15 @@
         <v>242167.0</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>120</v>
@@ -9010,15 +9149,15 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>120</v>
@@ -9038,15 +9177,15 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
       <c r="N153" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>120</v>
@@ -9078,15 +9217,15 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
       <c r="N154" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>120</v>
@@ -9116,15 +9255,15 @@
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
       <c r="N155" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>120</v>
@@ -9160,15 +9299,15 @@
         <v>25806.0</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>120</v>
@@ -9204,15 +9343,15 @@
         <v>361391.0</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>120</v>
@@ -9240,15 +9379,15 @@
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
       <c r="N158" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>120</v>
@@ -9284,15 +9423,15 @@
         <v>247339.0</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>120</v>
@@ -9330,10 +9469,10 @@
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>120</v>
@@ -9371,10 +9510,10 @@
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>120</v>
@@ -9400,15 +9539,15 @@
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
       <c r="N162" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>120</v>
@@ -9438,15 +9577,15 @@
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
       <c r="N163" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>120</v>
@@ -9466,15 +9605,15 @@
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
       <c r="N164" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>120</v>
@@ -9506,15 +9645,15 @@
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
       <c r="N165" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>120</v>
@@ -9530,15 +9669,15 @@
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
       <c r="N166" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>120</v>
@@ -9576,10 +9715,10 @@
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>120</v>
@@ -9595,15 +9734,15 @@
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
       <c r="N168" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>120</v>
@@ -9619,15 +9758,15 @@
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
       <c r="N169" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>120</v>
@@ -9665,10 +9804,10 @@
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>120</v>
@@ -9698,15 +9837,15 @@
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
       <c r="N171" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>120</v>
@@ -9728,15 +9867,15 @@
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
       <c r="N172" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>120</v>
@@ -9775,10 +9914,10 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>120</v>
@@ -9814,15 +9953,15 @@
         <v>153096.0</v>
       </c>
       <c r="N174" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>120</v>
@@ -9860,10 +9999,10 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>120</v>
@@ -9901,10 +10040,10 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>120</v>
@@ -9940,15 +10079,15 @@
         <v>41148.0</v>
       </c>
       <c r="N177" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>120</v>
@@ -9986,10 +10125,10 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>120</v>
@@ -10025,15 +10164,15 @@
         <v>56393.0</v>
       </c>
       <c r="N179" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>120</v>
@@ -10069,15 +10208,15 @@
         <v>1982.0</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>458</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>120</v>
@@ -10113,15 +10252,15 @@
         <v>373931.0</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>120</v>
@@ -10155,10 +10294,10 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>120</v>
@@ -10194,15 +10333,15 @@
         <v>110574.0</v>
       </c>
       <c r="N183" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>120</v>
@@ -10238,10 +10377,10 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>120</v>
@@ -10277,15 +10416,15 @@
         <v>255692.0</v>
       </c>
       <c r="N185" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>120</v>
@@ -10323,10 +10462,10 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>120</v>
@@ -10362,10 +10501,10 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>120</v>
@@ -10403,10 +10542,10 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>120</v>
@@ -10442,15 +10581,15 @@
         <v>379261.0</v>
       </c>
       <c r="N189" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>480</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>120</v>
@@ -10486,15 +10625,15 @@
         <v>204649.0</v>
       </c>
       <c r="N190" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>120</v>
@@ -10530,15 +10669,15 @@
         <v>58875.0</v>
       </c>
       <c r="N191" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>120</v>
@@ -10558,15 +10697,15 @@
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
       <c r="N192" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>120</v>
@@ -10604,10 +10743,10 @@
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>120</v>
@@ -10645,10 +10784,10 @@
     </row>
     <row r="195">
       <c r="A195" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>120</v>
@@ -10684,10 +10823,10 @@
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>120</v>
@@ -10725,10 +10864,10 @@
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B197" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>120</v>
@@ -10766,10 +10905,10 @@
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>120</v>
@@ -10807,10 +10946,10 @@
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>120</v>
@@ -10838,15 +10977,15 @@
       <c r="L199" s="6"/>
       <c r="M199" s="3"/>
       <c r="N199" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>120</v>
@@ -10884,10 +11023,10 @@
     </row>
     <row r="201">
       <c r="A201" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>120</v>
@@ -10925,10 +11064,10 @@
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>120</v>
@@ -10966,10 +11105,10 @@
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>120</v>
@@ -11001,15 +11140,15 @@
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
       <c r="N203" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>120</v>
@@ -11033,15 +11172,15 @@
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
       <c r="N204" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>120</v>
@@ -11077,15 +11216,15 @@
         <v>154342.0</v>
       </c>
       <c r="N205" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>120</v>
@@ -11121,15 +11260,15 @@
         <v>248360.0</v>
       </c>
       <c r="N206" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>120</v>
@@ -11167,10 +11306,10 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>120</v>
@@ -11206,15 +11345,15 @@
         <v>355080.0</v>
       </c>
       <c r="N208" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>120</v>
@@ -11252,10 +11391,10 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>528</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>120</v>
@@ -11291,15 +11430,15 @@
         <v>119374.0</v>
       </c>
       <c r="N210" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>120</v>
@@ -11335,15 +11474,15 @@
         <v>46700.0</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>120</v>
@@ -11361,10 +11500,10 @@
     </row>
     <row r="213">
       <c r="A213" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>120</v>
@@ -11398,15 +11537,15 @@
       </c>
       <c r="M213" s="6"/>
       <c r="N213" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>120</v>
@@ -11438,10 +11577,10 @@
     </row>
     <row r="215">
       <c r="A215" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>120</v>
@@ -11475,15 +11614,15 @@
       </c>
       <c r="M215" s="6"/>
       <c r="N215" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>120</v>
@@ -11513,18 +11652,18 @@
         <v>341960.0</v>
       </c>
       <c r="N216" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="C217" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="D217" s="7">
         <v>202181.0</v>
@@ -11557,10 +11696,10 @@
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>120</v>
@@ -11594,15 +11733,15 @@
       </c>
       <c r="M218" s="6"/>
       <c r="N218" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>120</v>
@@ -11630,15 +11769,15 @@
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
       <c r="N219" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>120</v>
@@ -11674,15 +11813,15 @@
         <v>28692.0</v>
       </c>
       <c r="N220" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>120</v>
@@ -11714,10 +11853,10 @@
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>120</v>
@@ -11743,15 +11882,15 @@
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
       <c r="N222" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>120</v>
@@ -11769,15 +11908,15 @@
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
       <c r="N223" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>120</v>
@@ -11813,25 +11952,25 @@
     </row>
     <row r="225">
       <c r="A225" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="C225" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D225" s="3" t="s">
+      <c r="E225" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="F225" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="G225" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
@@ -11840,15 +11979,15 @@
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
       <c r="N225" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>120</v>
@@ -11870,15 +12009,15 @@
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
       <c r="N226" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>578</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>120</v>
@@ -11902,15 +12041,15 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
       <c r="N227" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>120</v>
@@ -11938,10 +12077,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>120</v>
@@ -11973,10 +12112,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>120</v>
@@ -12014,10 +12153,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>120</v>
@@ -12051,10 +12190,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>589</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>120</v>
@@ -12070,15 +12209,15 @@
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
       <c r="N232" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>120</v>
@@ -12108,15 +12247,15 @@
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
       <c r="N233" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>120</v>
@@ -12144,15 +12283,15 @@
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
       <c r="N234" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>120</v>
@@ -12190,10 +12329,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>120</v>
@@ -12217,15 +12356,15 @@
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
       <c r="N236" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>120</v>
@@ -12261,15 +12400,15 @@
         <v>167540.0</v>
       </c>
       <c r="N237" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>120</v>
@@ -12305,15 +12444,15 @@
         <v>118107.0</v>
       </c>
       <c r="N238" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>120</v>
@@ -12351,10 +12490,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>120</v>
@@ -12384,15 +12523,15 @@
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
       <c r="N240" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>120</v>
@@ -12410,10 +12549,10 @@
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>120</v>
@@ -12449,15 +12588,15 @@
         <v>211818.0</v>
       </c>
       <c r="N242" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>120</v>
@@ -12495,10 +12634,10 @@
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>120</v>
@@ -12536,10 +12675,10 @@
     </row>
     <row r="245">
       <c r="A245" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B245" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>120</v>
@@ -12577,10 +12716,10 @@
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>120</v>
@@ -12618,10 +12757,10 @@
     </row>
     <row r="247">
       <c r="A247" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>120</v>
@@ -12657,15 +12796,15 @@
         <v>267001.0</v>
       </c>
       <c r="N247" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>120</v>
@@ -12701,15 +12840,15 @@
         <v>339675.0</v>
       </c>
       <c r="N248" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>120</v>
@@ -12745,15 +12884,15 @@
         <v>71212.0</v>
       </c>
       <c r="N249" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>120</v>
@@ -12783,10 +12922,10 @@
     </row>
     <row r="251">
       <c r="A251" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>120</v>
@@ -12824,10 +12963,10 @@
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>120</v>
@@ -12863,15 +13002,15 @@
         <v>274814.0</v>
       </c>
       <c r="N252" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>120</v>
@@ -12899,15 +13038,15 @@
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
       <c r="N253" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>120</v>
@@ -12930,15 +13069,15 @@
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
       <c r="N254" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>120</v>
@@ -12968,15 +13107,15 @@
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
       <c r="N255" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>120</v>
@@ -13012,15 +13151,15 @@
         <v>14073.0</v>
       </c>
       <c r="N256" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>120</v>
@@ -13056,15 +13195,15 @@
         <v>237936.0</v>
       </c>
       <c r="N257" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>120</v>
@@ -13093,10 +13232,10 @@
     </row>
     <row r="259">
       <c r="A259" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>120</v>
@@ -13120,15 +13259,15 @@
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
       <c r="N259" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>120</v>
@@ -13164,15 +13303,15 @@
         <v>256676.0</v>
       </c>
       <c r="N260" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>120</v>
@@ -13206,15 +13345,15 @@
       </c>
       <c r="M261" s="6"/>
       <c r="N261" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>120</v>
@@ -13244,15 +13383,15 @@
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
       <c r="N262" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>120</v>
@@ -13290,10 +13429,10 @@
     </row>
     <row r="264">
       <c r="A264" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>120</v>
@@ -13329,10 +13468,10 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>120</v>
@@ -13370,10 +13509,10 @@
     </row>
     <row r="266">
       <c r="A266" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>120</v>
@@ -13403,15 +13542,15 @@
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
       <c r="N266" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>120</v>
@@ -13439,10 +13578,10 @@
     </row>
     <row r="268">
       <c r="A268" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>682</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>120</v>
@@ -13476,10 +13615,10 @@
     </row>
     <row r="269">
       <c r="A269" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>120</v>
@@ -13509,15 +13648,15 @@
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
       <c r="N269" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>120</v>
@@ -13555,10 +13694,10 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>120</v>
@@ -13589,10 +13728,10 @@
     </row>
     <row r="272">
       <c r="A272" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>691</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>120</v>
@@ -13628,15 +13767,15 @@
         <v>378655.0</v>
       </c>
       <c r="N272" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>694</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>120</v>
@@ -13674,10 +13813,10 @@
     </row>
     <row r="274">
       <c r="A274" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>696</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>120</v>
@@ -13713,15 +13852,15 @@
         <v>347664.0</v>
       </c>
       <c r="N274" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B275" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>699</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>120</v>
@@ -13757,15 +13896,15 @@
         <v>326961.0</v>
       </c>
       <c r="N275" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>702</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>120</v>
@@ -13803,13 +13942,13 @@
     </row>
     <row r="277">
       <c r="A277" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="C277" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="D277" s="10">
         <v>258052.0</v>
@@ -13844,13 +13983,13 @@
     </row>
     <row r="278">
       <c r="A278" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>707</v>
-      </c>
       <c r="C278" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D278" s="3">
         <v>162500.0</v>
@@ -13877,13 +14016,13 @@
     </row>
     <row r="279">
       <c r="A279" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>709</v>
-      </c>
       <c r="C279" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D279" s="10">
         <v>326919.0</v>
@@ -13912,13 +14051,13 @@
     </row>
     <row r="280">
       <c r="A280" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="B280" s="5" t="s">
-        <v>711</v>
-      </c>
       <c r="C280" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D280" s="10">
         <v>216563.0</v>
@@ -13951,13 +14090,13 @@
     </row>
     <row r="281">
       <c r="A281" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="B281" s="5" t="s">
-        <v>713</v>
-      </c>
       <c r="C281" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D281" s="10">
         <v>70166.0</v>
@@ -13986,13 +14125,13 @@
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B282" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B282" s="5" t="s">
-        <v>715</v>
-      </c>
       <c r="C282" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D282" s="10">
         <v>65997.0</v>
@@ -14027,13 +14166,13 @@
     </row>
     <row r="283">
       <c r="A283" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B283" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B283" s="5" t="s">
-        <v>717</v>
-      </c>
       <c r="C283" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D283" s="10">
         <v>70115.0</v>
@@ -14064,13 +14203,13 @@
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B284" s="5" t="s">
-        <v>719</v>
-      </c>
       <c r="C284" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D284" s="10">
         <v>340728.0</v>
@@ -14105,10 +14244,10 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>120</v>
@@ -14136,15 +14275,15 @@
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
       <c r="N285" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B286" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>120</v>
@@ -14178,15 +14317,15 @@
       </c>
       <c r="M286" s="6"/>
       <c r="N286" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>120</v>
@@ -14222,15 +14361,15 @@
         <v>82115.0</v>
       </c>
       <c r="N287" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B288" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>120</v>
@@ -14266,15 +14405,15 @@
         <v>56937.0</v>
       </c>
       <c r="N288" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>120</v>
@@ -14296,15 +14435,15 @@
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
       <c r="N289" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B290" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>736</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>120</v>
@@ -14343,10 +14482,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B291" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>120</v>
@@ -14378,15 +14517,15 @@
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
       <c r="N291" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B292" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>120</v>
@@ -14425,10 +14564,10 @@
     </row>
     <row r="293">
       <c r="A293" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B293" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>120</v>
@@ -14462,15 +14601,15 @@
       </c>
       <c r="M293" s="6"/>
       <c r="N293" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B294" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>746</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>120</v>
@@ -14502,10 +14641,10 @@
     </row>
     <row r="295">
       <c r="A295" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B295" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>120</v>
@@ -14543,10 +14682,10 @@
     </row>
     <row r="296">
       <c r="A296" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B296" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>750</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>120</v>
@@ -14576,15 +14715,15 @@
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
       <c r="N296" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>120</v>
@@ -14612,10 +14751,10 @@
     </row>
     <row r="298">
       <c r="A298" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>754</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>755</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>120</v>
@@ -14647,15 +14786,15 @@
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
       <c r="N298" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B299" s="5" t="s">
         <v>757</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>758</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>120</v>
@@ -14691,33 +14830,33 @@
         <v>108429.0</v>
       </c>
       <c r="N299" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="C300" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D300" s="3" t="s">
+      <c r="E300" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="F300" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="G300" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="G300" s="3" t="s">
+      <c r="H300" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="I300" s="7">
         <v>378685.0</v>
@@ -14727,15 +14866,15 @@
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
       <c r="N300" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B301" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>769</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>120</v>
@@ -14767,15 +14906,15 @@
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
       <c r="N301" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B302" s="5" t="s">
         <v>771</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>772</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>120</v>
@@ -14797,15 +14936,15 @@
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
       <c r="N302" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B303" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>120</v>
@@ -14843,10 +14982,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B304" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>777</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>120</v>
@@ -14872,15 +15011,15 @@
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
       <c r="N304" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B305" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>780</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>120</v>
@@ -14916,15 +15055,15 @@
         <v>13658.0</v>
       </c>
       <c r="N305" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B306" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>783</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>120</v>
@@ -14962,10 +15101,10 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>120</v>
@@ -15001,15 +15140,15 @@
         <v>91452.0</v>
       </c>
       <c r="N307" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B308" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>120</v>
@@ -15045,15 +15184,15 @@
         <v>188033.0</v>
       </c>
       <c r="N308" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>791</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>120</v>
@@ -15087,10 +15226,10 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>120</v>
@@ -15126,15 +15265,15 @@
         <v>65500.0</v>
       </c>
       <c r="N310" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>120</v>
@@ -15160,15 +15299,15 @@
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
       <c r="N311" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B312" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>120</v>
@@ -15204,10 +15343,10 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B313" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>120</v>
@@ -15245,10 +15384,10 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B314" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>120</v>
@@ -15278,10 +15417,10 @@
     </row>
     <row r="315">
       <c r="A315" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B315" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>805</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>120</v>
@@ -15319,10 +15458,10 @@
     </row>
     <row r="316">
       <c r="A316" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B316" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>120</v>
@@ -15344,21 +15483,21 @@
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
       <c r="N316" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B317" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="C317" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D317" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>811</v>
       </c>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -15370,21 +15509,21 @@
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
       <c r="N317" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B318" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>814</v>
-      </c>
       <c r="C318" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -15396,15 +15535,15 @@
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
       <c r="N318" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B319" s="5" t="s">
         <v>815</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>816</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>120</v>
@@ -15432,15 +15571,15 @@
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
       <c r="N319" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B320" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>120</v>
@@ -15470,10 +15609,10 @@
     </row>
     <row r="321">
       <c r="A321" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B321" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>120</v>
@@ -15501,15 +15640,15 @@
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
       <c r="N321" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B322" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>120</v>
@@ -15539,15 +15678,15 @@
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
       <c r="N322" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B323" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>120</v>
@@ -15583,15 +15722,15 @@
         <v>55107.0</v>
       </c>
       <c r="N323" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B324" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>830</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>120</v>
@@ -15623,15 +15762,15 @@
       <c r="L324" s="7"/>
       <c r="M324" s="6"/>
       <c r="N324" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B325" s="5" t="s">
         <v>832</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>833</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>120</v>
@@ -15659,15 +15798,15 @@
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
       <c r="N325" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B326" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>836</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>120</v>
@@ -15699,10 +15838,10 @@
     </row>
     <row r="327">
       <c r="A327" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>838</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>120</v>
@@ -15732,10 +15871,10 @@
     </row>
     <row r="328">
       <c r="A328" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B328" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>840</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>120</v>
@@ -15771,15 +15910,15 @@
         <v>262265.0</v>
       </c>
       <c r="N328" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B329" s="5" t="s">
         <v>842</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>843</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>120</v>
@@ -15805,15 +15944,15 @@
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
       <c r="N329" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B330" s="5" t="s">
         <v>845</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>846</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>120</v>
@@ -15843,15 +15982,15 @@
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
       <c r="N330" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B331" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>120</v>
@@ -15869,10 +16008,10 @@
     </row>
     <row r="332">
       <c r="A332" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B332" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>851</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>120</v>
@@ -15900,15 +16039,15 @@
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
       <c r="N332" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B333" s="5" t="s">
         <v>853</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>854</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>120</v>
@@ -15926,15 +16065,15 @@
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
       <c r="N333" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B334" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>857</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>120</v>
@@ -15954,10 +16093,10 @@
     </row>
     <row r="335">
       <c r="A335" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B335" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>120</v>
@@ -15991,10 +16130,10 @@
     </row>
     <row r="336">
       <c r="A336" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B336" s="5" t="s">
         <v>860</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>861</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>120</v>
@@ -16020,15 +16159,15 @@
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
       <c r="N336" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>120</v>
@@ -16043,7 +16182,7 @@
         <v>198893.0</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
@@ -16054,19 +16193,19 @@
     </row>
     <row r="338">
       <c r="A338" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="C338" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="E338" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>868</v>
       </c>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
@@ -16079,10 +16218,10 @@
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B339" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>870</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>120</v>
@@ -16116,10 +16255,10 @@
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>871</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>872</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>120</v>
@@ -16147,15 +16286,15 @@
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
       <c r="N340" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>875</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>120</v>
@@ -16187,15 +16326,15 @@
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
       <c r="N341" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B342" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>120</v>
@@ -16227,15 +16366,15 @@
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
       <c r="N342" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B343" s="5" t="s">
         <v>880</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>881</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>120</v>
@@ -16265,15 +16404,15 @@
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
       <c r="N343" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B344" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>884</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>120</v>
@@ -16311,10 +16450,10 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B345" s="5" t="s">
         <v>885</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>886</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>120</v>
@@ -16342,10 +16481,10 @@
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>888</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>120</v>
@@ -16383,10 +16522,10 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B347" s="5" t="s">
         <v>889</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>890</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>120</v>
@@ -16412,15 +16551,15 @@
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
       <c r="N347" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>892</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>893</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>120</v>
@@ -16453,15 +16592,15 @@
         <v>98536.0</v>
       </c>
       <c r="N348" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B349" s="5" t="s">
         <v>895</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>896</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>120</v>
@@ -16495,10 +16634,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B350" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>120</v>
@@ -16530,10 +16669,10 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B351" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>900</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>120</v>
@@ -16559,15 +16698,15 @@
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
       <c r="N351" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>120</v>
@@ -16595,10 +16734,10 @@
     </row>
     <row r="353">
       <c r="A353" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>905</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>120</v>
@@ -16634,10 +16773,10 @@
     </row>
     <row r="354">
       <c r="A354" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B354" s="5" t="s">
         <v>906</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>120</v>
@@ -16667,15 +16806,15 @@
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
       <c r="N354" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B355" s="5" t="s">
         <v>909</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>910</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>120</v>
@@ -16699,10 +16838,10 @@
     </row>
     <row r="356">
       <c r="A356" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>911</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>912</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>120</v>
@@ -16730,10 +16869,10 @@
     </row>
     <row r="357">
       <c r="A357" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>914</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>120</v>
@@ -16769,15 +16908,15 @@
         <v>20065.0</v>
       </c>
       <c r="N357" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>916</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>917</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>120</v>
@@ -16813,15 +16952,15 @@
         <v>318680.0</v>
       </c>
       <c r="N358" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B359" s="5" t="s">
         <v>919</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>920</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>120</v>
@@ -16859,10 +16998,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>921</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>922</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>120</v>
@@ -16898,55 +17037,55 @@
         <v>354102.0</v>
       </c>
       <c r="N360" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B361" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="C361" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D361" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D361" s="3" t="s">
+      <c r="E361" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="E361" s="3" t="s">
+      <c r="F361" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="G361" s="6"/>
       <c r="H361" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="I361" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="I361" s="7" t="s">
+      <c r="J361" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="J361" s="7" t="s">
+      <c r="K361" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="K361" s="7" t="s">
+      <c r="L361" s="7" t="s">
         <v>932</v>
-      </c>
-      <c r="L361" s="7" t="s">
-        <v>933</v>
       </c>
       <c r="M361" s="6"/>
       <c r="N361" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>935</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>936</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>120</v>
@@ -16978,15 +17117,15 @@
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
       <c r="N362" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B363" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>938</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>120</v>
@@ -17022,15 +17161,15 @@
         <v>211003.0</v>
       </c>
       <c r="N363" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B364" s="5" t="s">
         <v>940</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>941</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>120</v>
@@ -17066,15 +17205,15 @@
         <v>188397.0</v>
       </c>
       <c r="N364" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B365" s="5" t="s">
         <v>942</v>
-      </c>
-      <c r="B365" s="5" t="s">
-        <v>943</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>120</v>
@@ -17108,15 +17247,15 @@
       </c>
       <c r="M365" s="6"/>
       <c r="N365" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B366" s="5" t="s">
         <v>944</v>
-      </c>
-      <c r="B366" s="5" t="s">
-        <v>945</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>120</v>
@@ -17142,15 +17281,15 @@
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
       <c r="N366" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B367" s="5" t="s">
         <v>947</v>
-      </c>
-      <c r="B367" s="5" t="s">
-        <v>948</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>120</v>
@@ -17186,15 +17325,15 @@
         <v>234477.0</v>
       </c>
       <c r="N367" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B368" s="5" t="s">
         <v>950</v>
-      </c>
-      <c r="B368" s="5" t="s">
-        <v>951</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>120</v>
@@ -17203,7 +17342,7 @@
         <v>66769.0</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
@@ -17214,15 +17353,15 @@
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
       <c r="N368" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B369" s="5" t="s">
         <v>954</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>955</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>120</v>
@@ -17252,15 +17391,15 @@
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
       <c r="N369" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B370" s="5" t="s">
         <v>957</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>958</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>120</v>
@@ -17296,15 +17435,15 @@
         <v>42904.0</v>
       </c>
       <c r="N370" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B371" s="5" t="s">
         <v>960</v>
-      </c>
-      <c r="B371" s="5" t="s">
-        <v>961</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>120</v>
@@ -17342,10 +17481,10 @@
     </row>
     <row r="372">
       <c r="A372" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B372" s="5" t="s">
         <v>962</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>963</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>120</v>
@@ -17383,10 +17522,10 @@
     </row>
     <row r="373">
       <c r="A373" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B373" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>965</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>120</v>
@@ -17410,15 +17549,15 @@
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
       <c r="N373" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B374" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>968</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>120</v>
@@ -17444,10 +17583,10 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B375" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>970</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>120</v>
@@ -17479,15 +17618,15 @@
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
       <c r="N375" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B376" s="5" t="s">
         <v>972</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>973</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>120</v>
@@ -17517,15 +17656,15 @@
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
       <c r="N376" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B377" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="B377" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>120</v>
@@ -17541,15 +17680,15 @@
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
       <c r="N377" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>978</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>979</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>120</v>
@@ -17569,15 +17708,15 @@
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
       <c r="N378" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B379" s="5" t="s">
         <v>981</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>120</v>
@@ -17586,16 +17725,16 @@
         <v>239</v>
       </c>
       <c r="E379" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="G379" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="F379" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="G379" s="3" t="s">
+      <c r="H379" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>985</v>
       </c>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
@@ -17603,15 +17742,15 @@
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
       <c r="N379" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>987</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>120</v>
@@ -17647,10 +17786,10 @@
     </row>
     <row r="381">
       <c r="A381" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B381" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>990</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>120</v>
@@ -17682,15 +17821,15 @@
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
       <c r="N381" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B382" s="5" t="s">
         <v>992</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>993</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>120</v>
@@ -17718,15 +17857,15 @@
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
       <c r="N382" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B383" s="5" t="s">
         <v>995</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>996</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>120</v>
@@ -17762,15 +17901,15 @@
         <v>261350.0</v>
       </c>
       <c r="N383" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B384" s="5" t="s">
         <v>998</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>999</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>120</v>
@@ -17798,15 +17937,15 @@
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
       <c r="N384" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B385" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>120</v>
@@ -17844,10 +17983,10 @@
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B386" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="B386" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>120</v>
@@ -17879,15 +18018,15 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
       <c r="N386" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B387" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>1007</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>120</v>
@@ -17923,10 +18062,10 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B388" s="5" t="s">
         <v>1008</v>
-      </c>
-      <c r="B388" s="5" t="s">
-        <v>1009</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>120</v>
@@ -17944,15 +18083,15 @@
       <c r="L388" s="6"/>
       <c r="M388" s="6"/>
       <c r="N388" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B389" s="5" t="s">
         <v>1011</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>1012</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>120</v>
@@ -17980,15 +18119,15 @@
       <c r="L389" s="6"/>
       <c r="M389" s="6"/>
       <c r="N389" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B390" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="B390" s="5" t="s">
-        <v>1015</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>120</v>
@@ -18016,15 +18155,15 @@
       <c r="L390" s="6"/>
       <c r="M390" s="6"/>
       <c r="N390" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>1017</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>1018</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>120</v>
@@ -18060,15 +18199,15 @@
         <v>360486.0</v>
       </c>
       <c r="N391" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B392" s="5" t="s">
         <v>1020</v>
-      </c>
-      <c r="B392" s="5" t="s">
-        <v>1021</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>120</v>
@@ -18094,15 +18233,15 @@
       <c r="L392" s="6"/>
       <c r="M392" s="6"/>
       <c r="N392" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B393" s="5" t="s">
         <v>1023</v>
-      </c>
-      <c r="B393" s="5" t="s">
-        <v>1024</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>120</v>
@@ -18134,15 +18273,15 @@
       <c r="L393" s="6"/>
       <c r="M393" s="6"/>
       <c r="N393" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B394" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>120</v>
@@ -18158,15 +18297,15 @@
       <c r="L394" s="6"/>
       <c r="M394" s="6"/>
       <c r="N394" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>120</v>
@@ -18186,15 +18325,15 @@
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
       <c r="N395" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B396" s="5" t="s">
         <v>1031</v>
-      </c>
-      <c r="B396" s="5" t="s">
-        <v>1032</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>120</v>
@@ -18210,15 +18349,15 @@
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
       <c r="N396" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B397" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>1035</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>120</v>
@@ -18250,10 +18389,10 @@
     </row>
     <row r="398">
       <c r="A398" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B398" s="5" t="s">
         <v>1036</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>1037</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>120</v>
@@ -18283,15 +18422,15 @@
       <c r="L398" s="6"/>
       <c r="M398" s="6"/>
       <c r="N398" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>1039</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>1040</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>120</v>
@@ -18313,15 +18452,15 @@
       <c r="L399" s="6"/>
       <c r="M399" s="6"/>
       <c r="N399" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B400" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>1043</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>120</v>
@@ -18357,15 +18496,15 @@
         <v>371236.0</v>
       </c>
       <c r="N400" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B401" s="5" t="s">
         <v>1045</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>1046</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>120</v>
@@ -18395,7 +18534,7 @@
       <c r="L401" s="6"/>
       <c r="M401" s="6"/>
       <c r="N401" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="402">
@@ -21910,7 +22049,7 @@
     </row>
     <row r="640">
       <c r="A640" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B640" s="16"/>
       <c r="C640" s="16"/>
